--- a/Kardex/OROPEZA ESTRADA RODRIGO.xlsx
+++ b/Kardex/OROPEZA ESTRADA RODRIGO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rudyl\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0b13018831d25970/Escritorio/Proyecto Terminal/Recomendaci-n-de-cargas-acad-micas-basado-en-optimizaci-n-multiobjetivo/Kardex/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{398C2D8C-9E65-4D04-81DE-96A0BFAE83AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{398C2D8C-9E65-4D04-81DE-96A0BFAE83AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A6CCE061-F90B-477C-A9B0-34C9D50C6020}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -1667,124 +1667,124 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="12"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="12"/>
     </xf>
   </cellXfs>
@@ -2127,15 +2127,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="72.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="72.1640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" customHeight="1">
@@ -2148,12 +2148,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="24">
+    <row r="3" spans="1:6" ht="36">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="26.4">
+    <row r="4" spans="1:6" ht="25.5">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
@@ -3455,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="74.400000000000006" customHeight="1">
+    <row r="74" spans="1:6" ht="74.45" customHeight="1">
       <c r="A74" s="35" t="s">
         <v>124</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="30.6">
+    <row r="75" spans="1:6" ht="56.25">
       <c r="A75" s="12" t="s">
         <v>126</v>
       </c>
